--- a/data/linear_svm_results.xlsx
+++ b/data/linear_svm_results.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.06295000000000001</v>
+        <v>0.062567</v>
       </c>
       <c r="B2" t="n">
-        <v>0.009620999999999999</v>
+        <v>0.008567</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000607</v>
+        <v>0.000561</v>
       </c>
       <c r="D2" t="n">
         <v>0.062282</v>
